--- a/craftBetAutomation/src/test/java/testData/InvalidData.xlsx
+++ b/craftBetAutomation/src/test/java/testData/InvalidData.xlsx
@@ -3,24 +3,35 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23478F5-FE78-4A99-9D70-F9069B1D26A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805F4408-8459-4AFA-B575-CBD5CF1C47B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1590" windowWidth="21600" windowHeight="11355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1590" windowWidth="21600" windowHeight="11355" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginInvalidData" sheetId="1" r:id="rId1"/>
+    <sheet name="PasswordRecoveryInvalidData" sheetId="2" r:id="rId2"/>
+    <sheet name="SignUpQuickInvalidEmail" sheetId="3" r:id="rId3"/>
+    <sheet name="SignUpQuickInvalidNumber" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>username</t>
   </si>
@@ -59,13 +70,58 @@
   </si>
   <si>
     <t>N3H U3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> g.babloyan@iqsoft.am</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g.babloyan@iqsoft.am </t>
+  </si>
+  <si>
+    <t>g .babloyan@iqsoft.am</t>
+  </si>
+  <si>
+    <t>g. babloyan@iqsoft.am</t>
+  </si>
+  <si>
+    <t>g.babloyan@iqsoft.a m</t>
+  </si>
+  <si>
+    <t>0.12/34?56</t>
+  </si>
+  <si>
+    <t>123abc123</t>
+  </si>
+  <si>
+    <t>g_babloyan@mail.com</t>
+  </si>
+  <si>
+    <t>gor@babloyan@mail.ru</t>
+  </si>
+  <si>
+    <t>Email/Password</t>
+  </si>
+  <si>
+    <t>123 45 6</t>
+  </si>
+  <si>
+    <t>Phone number</t>
+  </si>
+  <si>
+    <t>123/45/6</t>
+  </si>
+  <si>
+    <t>123+45-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 2 3 4 5 6 7 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +154,33 @@
       <sz val="9.8000000000000007"/>
       <color rgb="FFA9B7C6"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -138,18 +221,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -462,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -530,9 +636,208 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="1:2" ht="23.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="23.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="23.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B107D13E-A346-41E9-BA28-C19551100D77}">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="47.5703125" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="23.25">
+      <c r="A1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="7">
+        <v>23456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="7">
+        <v>2345678900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="7">
+        <v>0.123456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A12" r:id="rId1" xr:uid="{1F26CA27-A05C-4C46-B12D-5ADBBE613F47}"/>
+    <hyperlink ref="A9" r:id="rId2" xr:uid="{229E86E5-BEC2-441E-A258-A596E80E5D30}"/>
+    <hyperlink ref="A13" r:id="rId3" xr:uid="{B47E7718-FA6B-4774-862F-2B448051A7ED}"/>
+    <hyperlink ref="A14" r:id="rId4" xr:uid="{28318217-EAC3-40DA-8429-CEB3BEB90B75}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F1D9D-D877-4A36-A600-C8C884B5C43A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B796E1-4559-41F4-9FB3-C3AB336F6B3F}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="23.25">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="7">
+        <v>23456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="5">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="5">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/craftBetAutomation/src/test/java/testData/InvalidData.xlsx
+++ b/craftBetAutomation/src/test/java/testData/InvalidData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805F4408-8459-4AFA-B575-CBD5CF1C47B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF89B33-E396-414A-BBB1-9A3859BBE89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1590" windowWidth="21600" windowHeight="11355" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1590" windowWidth="21600" windowHeight="11355" tabRatio="663" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginInvalidData" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>username</t>
   </si>
@@ -115,13 +115,90 @@
   </si>
   <si>
     <t xml:space="preserve"> 1 2 3 4 5 6 7 </t>
+  </si>
+  <si>
+    <t>ASs18.gmail.com</t>
+  </si>
+  <si>
+    <t>ASs18@gmail@com</t>
+  </si>
+  <si>
+    <t>AS"s18@gmail.com</t>
+  </si>
+  <si>
+    <t>AS_s18@gmail.com</t>
+  </si>
+  <si>
+    <t>AS?s18@gmail.com</t>
+  </si>
+  <si>
+    <t>AS\s18@gmail.com</t>
+  </si>
+  <si>
+    <t>AS s18@gmailcom</t>
+  </si>
+  <si>
+    <r>
+      <t>AS s18</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AS s18</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gmail..com</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +253,23 @@
       <family val="3"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="10"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
@@ -225,7 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -250,9 +344,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -764,20 +859,78 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F1D9D-D877-4A36-A600-C8C884B5C43A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="10"/>
+    <row r="1" spans="1:1" ht="23.25">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="11" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{B742F0DE-B636-4457-8FC5-1C6E4137475F}"/>
+    <hyperlink ref="A4" r:id="rId2" display="ASs18@gmail@com" xr:uid="{AFC5AE62-FFFD-43CF-9E34-BB7380C10879}"/>
+    <hyperlink ref="A5:A8" r:id="rId3" display="ASs18@gmail@com" xr:uid="{72923134-19BC-4544-ACD2-E135A2C304C0}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{0BD7E400-7F47-4052-BECB-045787158394}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{CA721E57-261E-4D59-BEC0-C90555918E20}"/>
+    <hyperlink ref="A9" r:id="rId6" display="ASs18@gmail@com" xr:uid="{127B787D-E617-4AB7-9AC8-C284E61E0136}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -785,7 +938,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B796E1-4559-41F4-9FB3-C3AB336F6B3F}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/craftBetAutomation/src/test/java/testData/InvalidData.xlsx
+++ b/craftBetAutomation/src/test/java/testData/InvalidData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF89B33-E396-414A-BBB1-9A3859BBE89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05087B78-16D1-4014-B393-A7E5DEF363CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1590" windowWidth="21600" windowHeight="11355" tabRatio="663" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24990" yWindow="1110" windowWidth="21600" windowHeight="11355" tabRatio="663" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginInvalidData" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>username</t>
   </si>
@@ -192,6 +192,9 @@
       </rPr>
       <t>gmail..com</t>
     </r>
+  </si>
+  <si>
+    <t>0.12345.6</t>
   </si>
 </sst>
 </file>
@@ -766,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B107D13E-A346-41E9-BA28-C19551100D77}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -806,8 +809,8 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="7">
-        <v>0.123456</v>
+      <c r="A7" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -861,7 +864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F1D9D-D877-4A36-A600-C8C884B5C43A}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/craftBetAutomation/src/test/java/testData/InvalidData.xlsx
+++ b/craftBetAutomation/src/test/java/testData/InvalidData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05087B78-16D1-4014-B393-A7E5DEF363CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988F091A-7381-4505-9919-12C792422E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24990" yWindow="1110" windowWidth="21600" windowHeight="11355" tabRatio="663" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="2655" windowWidth="21600" windowHeight="11355" tabRatio="663" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginInvalidData" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>username</t>
   </si>
@@ -39,39 +39,9 @@
     <t>password</t>
   </si>
   <si>
-    <t>U1630370</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N3HU3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> N3HU3</t>
-  </si>
-  <si>
-    <t>U1630367</t>
-  </si>
-  <si>
-    <t>U1630368</t>
-  </si>
-  <si>
-    <t>U1630369</t>
-  </si>
-  <si>
     <t xml:space="preserve">     </t>
   </si>
   <si>
-    <t>U1630371</t>
-  </si>
-  <si>
-    <t>?N3HU3</t>
-  </si>
-  <si>
-    <t>N3HU3</t>
-  </si>
-  <si>
-    <t>N3H U3</t>
-  </si>
-  <si>
     <t xml:space="preserve"> g.babloyan@iqsoft.am</t>
   </si>
   <si>
@@ -135,73 +105,38 @@
     <t>AS\s18@gmail.com</t>
   </si>
   <si>
-    <t>AS s18@gmailcom</t>
-  </si>
-  <si>
-    <r>
-      <t>AS s18</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>gmail.com</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>AS s18</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>gmail..com</t>
-    </r>
-  </si>
-  <si>
     <t>0.12345.6</t>
+  </si>
+  <si>
+    <t>U1630651</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nsc9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nsc9  </t>
+  </si>
+  <si>
+    <t>ns c9</t>
+  </si>
+  <si>
+    <t>?nsc9</t>
+  </si>
+  <si>
+    <t>nsc9</t>
+  </si>
+  <si>
+    <t>AS s18@gmail.com</t>
+  </si>
+  <si>
+    <t>ASs18@gmailcom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,28 +153,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="Arial Unicode MS"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF6A8759"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
     <font>
       <u/>
@@ -250,34 +167,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="9" tint="-0.249977111117893"/>
+      <b/>
+      <sz val="14"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="9" tint="-0.249977111117893"/>
+      <b/>
+      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
       <u/>
-      <sz val="10"/>
-      <color theme="9" tint="-0.249977111117893"/>
+      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="JetBrains Mono"/>
     </font>
   </fonts>
   <fills count="3">
@@ -320,37 +238,43 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -668,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -686,80 +610,80 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="23.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="23.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="23.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="23.25">
-      <c r="A5" s="2" t="s">
+    <row r="2" spans="1:2" ht="19.5">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19.5">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="19.5">
+      <c r="A4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19.5">
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="23.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="23.25">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="23.25">
-      <c r="A8" s="2">
+    </row>
+    <row r="6" spans="1:2" ht="19.5">
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.75">
+      <c r="A7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18.75">
+      <c r="A8" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="23.25">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18.75">
+      <c r="A9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="23.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:2" ht="18.75">
+      <c r="A10" s="5">
         <v>2</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="5">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -767,93 +691,88 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B107D13E-A346-41E9-BA28-C19551100D77}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="47.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="23.25">
-      <c r="A1" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="19.5">
       <c r="A2" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" ht="19.5">
       <c r="A3" s="7">
         <v>23456</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="7">
-        <v>2345678900</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+    <row r="4" spans="1:1" ht="19.5">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="19.5">
       <c r="A5" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="19.5">
       <c r="A6" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="19.5">
       <c r="A7" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="18.75">
+      <c r="A8" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="19.5">
+      <c r="A9" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="19.5">
       <c r="A10" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="18.75">
+      <c r="A11" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="18.75">
+      <c r="A12" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="18.75">
       <c r="A13" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="9" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" xr:uid="{1F26CA27-A05C-4C46-B12D-5ADBBE613F47}"/>
-    <hyperlink ref="A9" r:id="rId2" xr:uid="{229E86E5-BEC2-441E-A258-A596E80E5D30}"/>
-    <hyperlink ref="A13" r:id="rId3" xr:uid="{B47E7718-FA6B-4774-862F-2B448051A7ED}"/>
-    <hyperlink ref="A14" r:id="rId4" xr:uid="{28318217-EAC3-40DA-8429-CEB3BEB90B75}"/>
+    <hyperlink ref="A11" r:id="rId1" xr:uid="{1F26CA27-A05C-4C46-B12D-5ADBBE613F47}"/>
+    <hyperlink ref="A8" r:id="rId2" xr:uid="{229E86E5-BEC2-441E-A258-A596E80E5D30}"/>
+    <hyperlink ref="A12" r:id="rId3" xr:uid="{B47E7718-FA6B-4774-862F-2B448051A7ED}"/>
+    <hyperlink ref="A13" r:id="rId4" xr:uid="{28318217-EAC3-40DA-8429-CEB3BEB90B75}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -865,7 +784,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -874,53 +793,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="23.25">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="19.5">
       <c r="A2" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="18.75">
       <c r="A3" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="18.75">
       <c r="A4" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="18.75">
       <c r="A5" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="18.75">
+      <c r="A6" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="18.75">
+      <c r="A7" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="18.75">
+      <c r="A8" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="18.75">
+      <c r="A9" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="11" t="s">
-        <v>34</v>
+    <row r="10" spans="1:1" ht="18.75">
+      <c r="A10" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -930,69 +849,75 @@
     <hyperlink ref="A5:A8" r:id="rId3" display="ASs18@gmail@com" xr:uid="{72923134-19BC-4544-ACD2-E135A2C304C0}"/>
     <hyperlink ref="A5" r:id="rId4" xr:uid="{0BD7E400-7F47-4052-BECB-045787158394}"/>
     <hyperlink ref="A6" r:id="rId5" xr:uid="{CA721E57-261E-4D59-BEC0-C90555918E20}"/>
-    <hyperlink ref="A9" r:id="rId6" display="ASs18@gmail@com" xr:uid="{127B787D-E617-4AB7-9AC8-C284E61E0136}"/>
+    <hyperlink ref="A9" r:id="rId6" xr:uid="{4C6FDF0F-B19B-431B-A09C-16A49BB487F1}"/>
+    <hyperlink ref="A10" r:id="rId7" xr:uid="{864CB3C5-3970-4195-8872-7F95E56CA8E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B796E1-4559-41F4-9FB3-C3AB336F6B3F}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="1" max="1" width="55.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="23.25">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="7">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="18">
+      <c r="A2" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="7">
+    <row r="3" spans="1:1" ht="18">
+      <c r="A3" s="11">
         <v>23456</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="5">
+    <row r="4" spans="1:1" ht="18">
+      <c r="A4" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="18">
+      <c r="A5" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="18">
+      <c r="A6" s="11">
         <v>123456</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="5">
+    <row r="7" spans="1:1" ht="18">
+      <c r="A7" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="18">
+      <c r="A8" s="11">
         <v>123456</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="5" t="s">
-        <v>27</v>
+    <row r="9" spans="1:1" ht="18">
+      <c r="A9" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="18.75">
+      <c r="A10" s="12">
+        <v>1.23456789987654E+17</v>
       </c>
     </row>
   </sheetData>
